--- a/data/更新导入-v1.1.xlsx
+++ b/data/更新导入-v1.1.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="83">
   <si>
     <t>手别</t>
   </si>
@@ -87,9 +87,6 @@
     <t>497645778</t>
   </si>
   <si>
-    <t>9162.96</t>
-  </si>
-  <si>
     <t>安徽淮河律师事务所</t>
   </si>
   <si>
@@ -102,66 +99,69 @@
     <t>安徽省怀远县人民法院</t>
   </si>
   <si>
+    <t>打印材料分案完成</t>
+  </si>
+  <si>
+    <t>pdu15207538</t>
+  </si>
+  <si>
+    <t>杨骁</t>
+  </si>
+  <si>
+    <t>477559155</t>
+  </si>
+  <si>
+    <t>16796.86</t>
+  </si>
+  <si>
+    <t>安徽省东至县人民法院</t>
+  </si>
+  <si>
+    <t>待立案</t>
+  </si>
+  <si>
+    <t>483695222</t>
+  </si>
+  <si>
+    <t>6715.88</t>
+  </si>
+  <si>
+    <t>已诉讼立案</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>案件初始导入</t>
+  </si>
+  <si>
+    <t>证据材料完整</t>
+  </si>
+  <si>
+    <t>案件证据材料</t>
+  </si>
+  <si>
+    <t>证据材料缺失待补充</t>
+  </si>
+  <si>
+    <t>网上立案分案完成</t>
+  </si>
+  <si>
+    <t>网上立案分案</t>
+  </si>
+  <si>
+    <t>待分案</t>
+  </si>
+  <si>
+    <t>网上立案完成</t>
+  </si>
+  <si>
+    <t>网上立案</t>
+  </si>
+  <si>
     <t>法院同意立案</t>
   </si>
   <si>
-    <t>pdu15207538</t>
-  </si>
-  <si>
-    <t>杨骁</t>
-  </si>
-  <si>
-    <t>477559155</t>
-  </si>
-  <si>
-    <t>16796.86</t>
-  </si>
-  <si>
-    <t>安徽省东至县人民法院</t>
-  </si>
-  <si>
-    <t>待立案</t>
-  </si>
-  <si>
-    <t>483695222</t>
-  </si>
-  <si>
-    <t>6715.88</t>
-  </si>
-  <si>
-    <t>已诉讼立案</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>案件初始导入</t>
-  </si>
-  <si>
-    <t>证据材料完整</t>
-  </si>
-  <si>
-    <t>案件证据材料</t>
-  </si>
-  <si>
-    <t>证据材料缺失待补充</t>
-  </si>
-  <si>
-    <t>网上立案分案完成</t>
-  </si>
-  <si>
-    <t>网上立案分案</t>
-  </si>
-  <si>
-    <t>待分案</t>
-  </si>
-  <si>
-    <t>网上立案完成</t>
-  </si>
-  <si>
-    <t>网上立案</t>
-  </si>
-  <si>
     <t>网上立案审核</t>
   </si>
   <si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>需要打印纸质材料并邮寄</t>
-  </si>
-  <si>
-    <t>打印材料分案完成</t>
   </si>
   <si>
     <t>打印材料分案</t>
@@ -1602,7 +1599,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1677,27 +1674,27 @@
       <c r="D2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="12">
+        <v>29162.96</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="J2" s="15" t="str">
         <f>VLOOKUP(K2,Sheet2!$B$2:$C$45,2,FALSE)</f>
-        <v>网上立案审核</v>
+        <v>打印材料分案</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
@@ -1708,35 +1705,35 @@
         <v>14</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="F3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="J3" s="15" t="str">
         <f>VLOOKUP(K3,Sheet2!$B$2:$C$45,2,FALSE)</f>
         <v>网上立案</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L3" s="15"/>
       <c r="M3" s="15"/>
@@ -1747,35 +1744,35 @@
         <v>14</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="15" t="str">
         <f>VLOOKUP(K4,Sheet2!$B$2:$C$45,2,FALSE)</f>
         <v>诉讼阶段</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
@@ -1816,7 +1813,7 @@
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -1830,10 +1827,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:3">
@@ -1841,10 +1838,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:3">
@@ -1852,10 +1849,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:3">
@@ -1863,10 +1860,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:3">
@@ -1874,10 +1871,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:3">
@@ -1885,10 +1882,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:3">
@@ -1896,10 +1893,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:3">
@@ -1907,7 +1904,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>43</v>
@@ -1962,10 +1959,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:3">
@@ -1973,10 +1970,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:3">
@@ -1984,10 +1981,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:3">
@@ -1995,10 +1992,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:3">
@@ -2006,10 +2003,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:3">
@@ -2017,10 +2014,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:3">
@@ -2028,10 +2025,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:3">
@@ -2039,10 +2036,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:3">
@@ -2050,10 +2047,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:3">
@@ -2061,10 +2058,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:3">
@@ -2072,10 +2069,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:3">
@@ -2083,10 +2080,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:3">
@@ -2094,10 +2091,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:3">
@@ -2105,10 +2102,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:3">
@@ -2116,10 +2113,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:3">
@@ -2127,10 +2124,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:3">
@@ -2138,10 +2135,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:3">
@@ -2149,10 +2146,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:3">
@@ -2160,10 +2157,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:3">
@@ -2171,10 +2168,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:3">
@@ -2182,10 +2179,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" ht="15.95" customHeight="1" spans="1:3">
@@ -2193,10 +2190,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:3">
@@ -2204,10 +2201,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:3">
@@ -2215,10 +2212,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:3">
@@ -2226,10 +2223,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:3">
@@ -2237,10 +2234,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:3">
@@ -2248,10 +2245,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:3">
@@ -2259,10 +2256,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" ht="18.75" customHeight="1" spans="1:3">
@@ -2270,10 +2267,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" ht="18.75" customHeight="1" spans="1:3">
@@ -2281,10 +2278,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" ht="18.75" customHeight="1" spans="1:3">
@@ -2292,10 +2289,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:3">
@@ -2303,10 +2300,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
